--- a/Code/Results/Cases/Case_6_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.74544474095701</v>
+        <v>13.50537979948913</v>
       </c>
       <c r="C2">
-        <v>14.99057596656465</v>
+        <v>7.207711086701181</v>
       </c>
       <c r="D2">
-        <v>4.881675937804041</v>
+        <v>7.49409222799228</v>
       </c>
       <c r="E2">
-        <v>9.834736177777033</v>
+        <v>11.02010549635985</v>
       </c>
       <c r="F2">
-        <v>34.78884448238767</v>
+        <v>23.952761030922</v>
       </c>
       <c r="G2">
-        <v>2.089367320390628</v>
+        <v>2.101640333697755</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.643975097849363</v>
+        <v>6.409327690904856</v>
       </c>
       <c r="K2">
-        <v>18.91464909868117</v>
+        <v>11.79021502287723</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.59047976145591</v>
+        <v>12.60530300476115</v>
       </c>
       <c r="O2">
-        <v>24.70488458234673</v>
+        <v>16.90988250286144</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.24958500605019</v>
+        <v>12.59272926785416</v>
       </c>
       <c r="C3">
-        <v>13.92683492938018</v>
+        <v>6.797326012320728</v>
       </c>
       <c r="D3">
-        <v>4.680465340651383</v>
+        <v>7.121665193312579</v>
       </c>
       <c r="E3">
-        <v>9.428209092883115</v>
+        <v>10.53896035361797</v>
       </c>
       <c r="F3">
-        <v>33.56626126688521</v>
+        <v>23.57469511209745</v>
       </c>
       <c r="G3">
-        <v>2.099088755212299</v>
+        <v>2.106524265863936</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.520831722867186</v>
+        <v>6.301521808073124</v>
       </c>
       <c r="K3">
-        <v>17.57532291120944</v>
+        <v>11.05132574508386</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.86284838925073</v>
+        <v>12.80994180675753</v>
       </c>
       <c r="O3">
-        <v>24.00066317495124</v>
+        <v>16.87038414349647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.34848314605158</v>
+        <v>11.99929866388301</v>
       </c>
       <c r="C4">
-        <v>13.23972487588068</v>
+        <v>6.532330908466697</v>
       </c>
       <c r="D4">
-        <v>4.554546058338317</v>
+        <v>6.885904319744145</v>
       </c>
       <c r="E4">
-        <v>9.177077068463319</v>
+        <v>10.23828883816993</v>
       </c>
       <c r="F4">
-        <v>32.83222428142732</v>
+        <v>23.35917853700065</v>
       </c>
       <c r="G4">
-        <v>2.105200527297984</v>
+        <v>2.109618676804781</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.448924783616347</v>
+        <v>6.237878469720236</v>
       </c>
       <c r="K4">
-        <v>16.72377227457275</v>
+        <v>10.572201927164</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.03293550618902</v>
+        <v>12.93835340593001</v>
       </c>
       <c r="O4">
-        <v>23.58614504125313</v>
+        <v>16.85952667123379</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.97227295648567</v>
+        <v>11.74910819471864</v>
       </c>
       <c r="C5">
-        <v>12.9510750820197</v>
+        <v>6.421105490342994</v>
       </c>
       <c r="D5">
-        <v>4.502701546862787</v>
+        <v>6.788170443410359</v>
       </c>
       <c r="E5">
-        <v>9.074476527255431</v>
+        <v>10.11462431914607</v>
       </c>
       <c r="F5">
-        <v>32.53749037449548</v>
+        <v>23.27552335501008</v>
       </c>
       <c r="G5">
-        <v>2.107729135220748</v>
+        <v>2.110904244081252</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.420547381719779</v>
+        <v>6.212600108836142</v>
       </c>
       <c r="K5">
-        <v>16.41050234056555</v>
+        <v>10.37056004973331</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.10300614560312</v>
+        <v>12.99139948218672</v>
       </c>
       <c r="O5">
-        <v>23.42173752901709</v>
+        <v>16.85835566934573</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.90926469051172</v>
+        <v>11.70705773481444</v>
       </c>
       <c r="C6">
-        <v>12.90261986140326</v>
+        <v>6.402442300117126</v>
       </c>
       <c r="D6">
-        <v>4.494062815112742</v>
+        <v>6.771845586889412</v>
       </c>
       <c r="E6">
-        <v>9.057427809866104</v>
+        <v>10.09402688795016</v>
       </c>
       <c r="F6">
-        <v>32.48882176823216</v>
+        <v>23.26188378001916</v>
       </c>
       <c r="G6">
-        <v>2.108151363282528</v>
+        <v>2.111119210195538</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.415891029862912</v>
+        <v>6.208442754302417</v>
       </c>
       <c r="K6">
-        <v>16.35806810483639</v>
+        <v>10.33669160025095</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.11468833437104</v>
+        <v>13.00025170970409</v>
       </c>
       <c r="O6">
-        <v>23.3947107180217</v>
+        <v>16.85835432924495</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.34344568640496</v>
+        <v>11.99595843328783</v>
       </c>
       <c r="C7">
-        <v>13.23586718707941</v>
+        <v>6.530843938143774</v>
       </c>
       <c r="D7">
-        <v>4.55384892289576</v>
+        <v>6.884592787551447</v>
       </c>
       <c r="E7">
-        <v>9.175694251198049</v>
+        <v>10.23662540913648</v>
       </c>
       <c r="F7">
-        <v>32.828231323034</v>
+        <v>23.35803347324252</v>
       </c>
       <c r="G7">
-        <v>2.105234472400972</v>
+        <v>2.10963591426443</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.448538338107121</v>
+        <v>6.237534877885189</v>
       </c>
       <c r="K7">
-        <v>16.71957542624957</v>
+        <v>10.5695083969008</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.03387737729029</v>
+        <v>12.93906587026659</v>
       </c>
       <c r="O7">
-        <v>23.58390949524588</v>
+        <v>16.85949785865607</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.22689458011591</v>
+        <v>13.19752925779827</v>
       </c>
       <c r="C8">
-        <v>14.6307819353131</v>
+        <v>7.068929920680206</v>
       </c>
       <c r="D8">
-        <v>4.812828146421556</v>
+        <v>7.367218479779171</v>
       </c>
       <c r="E8">
-        <v>9.694948573466178</v>
+        <v>10.85539702561014</v>
       </c>
       <c r="F8">
-        <v>34.3639638026001</v>
+        <v>23.81895344780087</v>
       </c>
       <c r="G8">
-        <v>2.092690958549626</v>
+        <v>2.10330477766971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.600743003950166</v>
+        <v>6.37163674689806</v>
       </c>
       <c r="K8">
-        <v>18.46172743647329</v>
+        <v>11.54072534069891</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.6838262704681</v>
+        <v>12.67530306899226</v>
       </c>
       <c r="O8">
-        <v>24.45836881246934</v>
+        <v>16.8934152083751</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.79131418664842</v>
+        <v>15.29377398269476</v>
       </c>
       <c r="C9">
-        <v>17.10194492338245</v>
+        <v>8.019800227232885</v>
       </c>
       <c r="D9">
-        <v>5.299426640562616</v>
+        <v>8.252971961332449</v>
       </c>
       <c r="E9">
-        <v>10.69679468239568</v>
+        <v>12.02039426043546</v>
       </c>
       <c r="F9">
-        <v>37.49994052018783</v>
+        <v>24.85449977718941</v>
       </c>
       <c r="G9">
-        <v>2.069121820837128</v>
+        <v>2.091623868749628</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.928904136457124</v>
+        <v>6.654109577041748</v>
       </c>
       <c r="K9">
-        <v>21.57079275841905</v>
+        <v>13.24376119708229</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.01802442410023</v>
+        <v>12.17889990978563</v>
       </c>
       <c r="O9">
-        <v>26.31458013963906</v>
+        <v>17.07119043081092</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.19165535891515</v>
+        <v>16.67859007412937</v>
       </c>
       <c r="C10">
-        <v>18.76454278898775</v>
+        <v>8.654051185501723</v>
       </c>
       <c r="D10">
-        <v>5.64141416947767</v>
+        <v>8.862056879080406</v>
       </c>
       <c r="E10">
-        <v>11.41854709083087</v>
+        <v>12.83929621259705</v>
       </c>
       <c r="F10">
-        <v>39.8730923969004</v>
+        <v>25.69475778090341</v>
       </c>
       <c r="G10">
-        <v>2.052272197410624</v>
+        <v>2.083453503028057</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.188666630263881</v>
+        <v>6.872525984867956</v>
       </c>
       <c r="K10">
-        <v>23.66023899907171</v>
+        <v>14.3731856727787</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.53856368427503</v>
+        <v>11.82528879938407</v>
       </c>
       <c r="O10">
-        <v>27.76516148651275</v>
+        <v>17.27620449527813</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.23873689710762</v>
+        <v>17.27557663928127</v>
       </c>
       <c r="C11">
-        <v>19.48972701512864</v>
+        <v>8.92859651058815</v>
       </c>
       <c r="D11">
-        <v>5.793269519935708</v>
+        <v>9.129410826426092</v>
       </c>
       <c r="E11">
-        <v>11.74331449324345</v>
+        <v>13.20262887388013</v>
       </c>
       <c r="F11">
-        <v>40.96751065946332</v>
+        <v>26.09394911676568</v>
       </c>
       <c r="G11">
-        <v>2.044667671235135</v>
+        <v>2.079817498604399</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.311078730229574</v>
+        <v>6.974042531761571</v>
       </c>
       <c r="K11">
-        <v>24.57097118114459</v>
+        <v>14.86089304985757</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.32189166595145</v>
+        <v>11.66645319086763</v>
       </c>
       <c r="O11">
-        <v>28.44457332274303</v>
+        <v>17.38695500052982</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.62903293530478</v>
+        <v>17.49695815097418</v>
       </c>
       <c r="C12">
-        <v>19.76004763398934</v>
+        <v>9.030554659939579</v>
       </c>
       <c r="D12">
-        <v>5.850220781232599</v>
+        <v>9.229212422359419</v>
       </c>
       <c r="E12">
-        <v>11.8657731742807</v>
+        <v>13.338819377098</v>
       </c>
       <c r="F12">
-        <v>41.38415187832347</v>
+        <v>26.24751797023633</v>
       </c>
       <c r="G12">
-        <v>2.041792902422012</v>
+        <v>2.07845150895677</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.358065043744215</v>
+        <v>7.012777749555273</v>
       </c>
       <c r="K12">
-        <v>24.91035250744541</v>
+        <v>15.04185974721967</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.23999456375055</v>
+        <v>11.60656423175045</v>
       </c>
       <c r="O12">
-        <v>28.70475864396562</v>
+        <v>17.43151104277348</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.54524782717963</v>
+        <v>17.44948708880947</v>
       </c>
       <c r="C13">
-        <v>19.70201688810285</v>
+        <v>9.008685262539277</v>
       </c>
       <c r="D13">
-        <v>5.837980111179145</v>
+        <v>9.207782932231428</v>
       </c>
       <c r="E13">
-        <v>11.83942273525616</v>
+        <v>13.30955138889492</v>
       </c>
       <c r="F13">
-        <v>41.2943204429431</v>
+        <v>26.21433780143698</v>
       </c>
       <c r="G13">
-        <v>2.04241188268983</v>
+        <v>2.07874522710673</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.347917203962168</v>
+        <v>7.004422649822688</v>
       </c>
       <c r="K13">
-        <v>24.83750113268062</v>
+        <v>15.00305011534487</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.25762669832502</v>
+        <v>11.61945142619663</v>
       </c>
       <c r="O13">
-        <v>28.64859172873865</v>
+        <v>17.42179711317765</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.27096979582288</v>
+        <v>17.29388337675764</v>
       </c>
       <c r="C14">
-        <v>19.51205130550253</v>
+        <v>8.937024837125803</v>
       </c>
       <c r="D14">
-        <v>5.797966094937354</v>
+        <v>9.137650613302206</v>
       </c>
       <c r="E14">
-        <v>11.75339972225429</v>
+        <v>13.213861684368</v>
       </c>
       <c r="F14">
-        <v>41.00174300086806</v>
+        <v>26.10653533838649</v>
       </c>
       <c r="G14">
-        <v>2.044431087419132</v>
+        <v>2.079704903942965</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.314931520841411</v>
+        <v>6.977223520595126</v>
       </c>
       <c r="K14">
-        <v>24.59900100305214</v>
+        <v>14.87585559563511</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.31515121562646</v>
+        <v>11.661521099758</v>
       </c>
       <c r="O14">
-        <v>28.4659199390975</v>
+        <v>17.39056762788205</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.10216529316359</v>
+        <v>17.19796329796915</v>
       </c>
       <c r="C15">
-        <v>19.39513900375338</v>
+        <v>8.892869686819477</v>
       </c>
       <c r="D15">
-        <v>5.773383922748</v>
+        <v>9.09450402723915</v>
       </c>
       <c r="E15">
-        <v>11.70063999348405</v>
+        <v>13.15506530838845</v>
       </c>
       <c r="F15">
-        <v>40.82282209956541</v>
+        <v>26.04081524697192</v>
       </c>
       <c r="G15">
-        <v>2.045668426458517</v>
+        <v>2.080294129187165</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.294809820818496</v>
+        <v>6.960600953216321</v>
       </c>
       <c r="K15">
-        <v>24.45220450454113</v>
+        <v>14.7974621693967</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.35040477902215</v>
+        <v>11.68732267452229</v>
       </c>
       <c r="O15">
-        <v>28.35441045477032</v>
+        <v>17.37178247561707</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.12234335697041</v>
+        <v>16.63891693818745</v>
       </c>
       <c r="C16">
-        <v>18.71653919681315</v>
+        <v>8.635827940862278</v>
       </c>
       <c r="D16">
-        <v>5.631413490601489</v>
+        <v>8.844385233866054</v>
       </c>
       <c r="E16">
-        <v>11.39724960230294</v>
+        <v>12.81535990627261</v>
       </c>
       <c r="F16">
-        <v>39.80187285745706</v>
+        <v>25.66900792373541</v>
       </c>
       <c r="G16">
-        <v>2.052770073425901</v>
+        <v>2.083692688267853</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.180753782979663</v>
+        <v>6.865933560981631</v>
       </c>
       <c r="K16">
-        <v>23.5999390192366</v>
+        <v>14.34079080549439</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.55274797502192</v>
+        <v>11.83570708406809</v>
       </c>
       <c r="O16">
-        <v>27.72116071804443</v>
+        <v>17.26932745148282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.50992821197968</v>
+        <v>16.28755498384167</v>
       </c>
       <c r="C17">
-        <v>18.29239120598998</v>
+        <v>8.474562124491635</v>
       </c>
       <c r="D17">
-        <v>5.543351357921656</v>
+        <v>8.688422295068229</v>
       </c>
       <c r="E17">
-        <v>11.210201817895</v>
+        <v>12.60454955288362</v>
       </c>
       <c r="F17">
-        <v>39.17938470671169</v>
+        <v>25.44523427602695</v>
       </c>
       <c r="G17">
-        <v>2.057139626024412</v>
+        <v>2.085797771936905</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.111884299084645</v>
+        <v>6.808398217012972</v>
       </c>
       <c r="K17">
-        <v>23.06706947928744</v>
+        <v>14.05398092937858</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.67720849345036</v>
+        <v>11.92723208012336</v>
       </c>
       <c r="O17">
-        <v>27.33774114626803</v>
+        <v>17.21102802620699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.15344618818092</v>
+        <v>16.08235376208368</v>
       </c>
       <c r="C18">
-        <v>18.04548912737761</v>
+        <v>8.380489997299254</v>
       </c>
       <c r="D18">
-        <v>5.492351100677189</v>
+        <v>8.597803195148259</v>
       </c>
       <c r="E18">
-        <v>11.10228094293142</v>
+        <v>12.48243529845244</v>
       </c>
       <c r="F18">
-        <v>38.82273550194593</v>
+        <v>25.31812352489381</v>
       </c>
       <c r="G18">
-        <v>2.059658818888623</v>
+        <v>2.087016205532845</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.072670325438751</v>
+        <v>6.77550947554284</v>
       </c>
       <c r="K18">
-        <v>22.7568191336413</v>
+        <v>13.88655912114097</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.7489335315894</v>
+        <v>11.98006739212617</v>
       </c>
       <c r="O18">
-        <v>27.11903870681151</v>
+        <v>17.17913598985195</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.03201302021342</v>
+        <v>16.01234079110967</v>
       </c>
       <c r="C19">
-        <v>17.96138143179159</v>
+        <v>8.34841267694839</v>
       </c>
       <c r="D19">
-        <v>5.475024014701288</v>
+        <v>8.566965708143989</v>
       </c>
       <c r="E19">
-        <v>11.06568381703308</v>
+        <v>12.44094405508263</v>
       </c>
       <c r="F19">
-        <v>38.70221801487387</v>
+        <v>25.27536149067657</v>
       </c>
       <c r="G19">
-        <v>2.060512903229449</v>
+        <v>2.087430080586693</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.059460955303821</v>
+        <v>6.764409506540722</v>
       </c>
       <c r="K19">
-        <v>22.65112178689225</v>
+        <v>13.82945019410924</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.77324385609556</v>
+        <v>11.99799054544999</v>
       </c>
       <c r="O19">
-        <v>27.04530195208811</v>
+        <v>17.16861642113316</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.57555773793018</v>
+        <v>16.32527923026586</v>
       </c>
       <c r="C20">
-        <v>18.33784582231845</v>
+        <v>8.491865364362685</v>
       </c>
       <c r="D20">
-        <v>5.552762030330848</v>
+        <v>8.705119679966549</v>
       </c>
       <c r="E20">
-        <v>11.23014829851758</v>
+        <v>12.62708045129507</v>
       </c>
       <c r="F20">
-        <v>39.24550556754664</v>
+        <v>25.4688902303547</v>
       </c>
       <c r="G20">
-        <v>2.056673890798109</v>
+        <v>2.085572896039936</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.119174256932641</v>
+        <v>6.814501961303715</v>
       </c>
       <c r="K20">
-        <v>23.12418171957591</v>
+        <v>14.08476633662947</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.66394550286237</v>
+        <v>11.91746938730264</v>
       </c>
       <c r="O20">
-        <v>27.37836681947021</v>
+        <v>17.21706358496472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.35169842276474</v>
+        <v>17.33971462590888</v>
       </c>
       <c r="C21">
-        <v>19.56796366144203</v>
+        <v>8.958127634483997</v>
       </c>
       <c r="D21">
-        <v>5.809734297424132</v>
+        <v>9.158289520829223</v>
       </c>
       <c r="E21">
-        <v>11.77868095680185</v>
+        <v>13.24200645517138</v>
       </c>
       <c r="F21">
-        <v>41.08761914608657</v>
+        <v>26.13813456830043</v>
       </c>
       <c r="G21">
-        <v>2.043837897549863</v>
+        <v>2.079422734134459</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.324602874350114</v>
+        <v>6.985204739337529</v>
       </c>
       <c r="K21">
-        <v>24.66920144154922</v>
+        <v>14.91331632622951</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.29825119022365</v>
+        <v>11.64915746617488</v>
       </c>
       <c r="O21">
-        <v>28.51949516579091</v>
+        <v>17.39966865824475</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.47643913688055</v>
+        <v>17.97543073868238</v>
       </c>
       <c r="C22">
-        <v>20.34700858209579</v>
+        <v>9.251168320033038</v>
       </c>
       <c r="D22">
-        <v>5.974454268096622</v>
+        <v>9.446059686226778</v>
       </c>
       <c r="E22">
-        <v>12.1341375259643</v>
+        <v>13.63573840319226</v>
       </c>
       <c r="F22">
-        <v>42.3045175214137</v>
+        <v>26.58952037223599</v>
       </c>
       <c r="G22">
-        <v>2.03547529324528</v>
+        <v>2.075466332253727</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.462558305370533</v>
+        <v>7.098470439853218</v>
       </c>
       <c r="K22">
-        <v>25.64706511604264</v>
+        <v>15.43317094448952</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.06010810967271</v>
+        <v>11.47529106788003</v>
       </c>
       <c r="O22">
-        <v>29.28231305801213</v>
+        <v>17.5343114862102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.87935765737184</v>
+        <v>17.63861347129208</v>
       </c>
       <c r="C23">
-        <v>19.93342933054097</v>
+        <v>9.095834014960282</v>
       </c>
       <c r="D23">
-        <v>5.886839258835117</v>
+        <v>9.29325110709263</v>
       </c>
       <c r="E23">
-        <v>11.94469972867968</v>
+        <v>13.42636282924326</v>
       </c>
       <c r="F23">
-        <v>41.65380273403096</v>
+        <v>26.34733771080798</v>
       </c>
       <c r="G23">
-        <v>2.039937527430072</v>
+        <v>2.077572417318451</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.388581876982308</v>
+        <v>7.037868000094607</v>
       </c>
       <c r="K23">
-        <v>25.12799849834042</v>
+        <v>15.15768417497046</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.18714927020958</v>
+        <v>11.56796167969633</v>
       </c>
       <c r="O23">
-        <v>28.87357986734931</v>
+        <v>17.46101736133821</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.5459003406387</v>
+        <v>16.30823406554236</v>
       </c>
       <c r="C24">
-        <v>18.31730531587818</v>
+        <v>8.484046800539373</v>
       </c>
       <c r="D24">
-        <v>5.548508623022916</v>
+        <v>8.697573760257853</v>
       </c>
       <c r="E24">
-        <v>11.22113169143231</v>
+        <v>12.6168970812272</v>
       </c>
       <c r="F24">
-        <v>39.21560850719383</v>
+        <v>25.4581905749608</v>
       </c>
       <c r="G24">
-        <v>2.056884427363996</v>
+        <v>2.08567453685947</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.115877284839627</v>
+        <v>6.811741868199261</v>
       </c>
       <c r="K24">
-        <v>23.09837342934294</v>
+        <v>14.07085613984058</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.66994116406569</v>
+        <v>11.92188242435082</v>
       </c>
       <c r="O24">
-        <v>27.35999456896571</v>
+        <v>17.21432985489339</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.8661778354976</v>
+        <v>14.75419347630309</v>
       </c>
       <c r="C25">
-        <v>16.4609292396615</v>
+        <v>7.773839164215763</v>
       </c>
       <c r="D25">
-        <v>5.170363670232229</v>
+        <v>8.020393357906924</v>
       </c>
       <c r="E25">
-        <v>10.42804803760568</v>
+        <v>11.71127115562867</v>
       </c>
       <c r="F25">
-        <v>36.63913870374495</v>
+        <v>24.56031322891021</v>
       </c>
       <c r="G25">
-        <v>2.075403371583799</v>
+        <v>2.09470885195599</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.836899571396899</v>
+        <v>6.575708512329975</v>
       </c>
       <c r="K25">
-        <v>20.76469503341989</v>
+        <v>12.80453398168818</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.19622111443351</v>
+        <v>12.31111984506822</v>
       </c>
       <c r="O25">
-        <v>25.79729297517422</v>
+        <v>17.01049321452809</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.50537979948913</v>
+        <v>12.57501728210831</v>
       </c>
       <c r="C2">
-        <v>7.207711086701181</v>
+        <v>8.323787426816002</v>
       </c>
       <c r="D2">
-        <v>7.49409222799228</v>
+        <v>8.297321611150563</v>
       </c>
       <c r="E2">
-        <v>11.02010549635985</v>
+        <v>11.39429637386746</v>
       </c>
       <c r="F2">
-        <v>23.952761030922</v>
+        <v>20.58736099421954</v>
       </c>
       <c r="G2">
-        <v>2.101640333697755</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.21395981750926</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.554242066166483</v>
       </c>
       <c r="J2">
-        <v>6.409327690904856</v>
+        <v>8.816219549594829</v>
       </c>
       <c r="K2">
-        <v>11.79021502287723</v>
+        <v>13.27597184052461</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.316729333481484</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.5769848707585</v>
       </c>
       <c r="N2">
-        <v>12.60530300476115</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.90988250286144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.24746820472709</v>
+      </c>
+      <c r="Q2">
+        <v>14.18304506392444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.59272926785416</v>
+        <v>11.76783140037895</v>
       </c>
       <c r="C3">
-        <v>6.797326012320728</v>
+        <v>7.875039040308371</v>
       </c>
       <c r="D3">
-        <v>7.121665193312579</v>
+        <v>7.8966111748017</v>
       </c>
       <c r="E3">
-        <v>10.53896035361797</v>
+        <v>10.89903810638807</v>
       </c>
       <c r="F3">
-        <v>23.57469511209745</v>
+        <v>20.29764522667561</v>
       </c>
       <c r="G3">
-        <v>2.106524265863936</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.98259082422742</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.523087327356596</v>
       </c>
       <c r="J3">
-        <v>6.301521808073124</v>
+        <v>8.863955160318561</v>
       </c>
       <c r="K3">
-        <v>11.05132574508386</v>
+        <v>13.39721878577794</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.20787757757614</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.9157587210676</v>
       </c>
       <c r="N3">
-        <v>12.80994180675753</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.87038414349647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.37708891517608</v>
+      </c>
+      <c r="Q3">
+        <v>14.1964169759707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.99929866388301</v>
+        <v>11.24044826408657</v>
       </c>
       <c r="C4">
-        <v>6.532330908466697</v>
+        <v>7.58913103118757</v>
       </c>
       <c r="D4">
-        <v>6.885904319744145</v>
+        <v>7.643944112036445</v>
       </c>
       <c r="E4">
-        <v>10.23828883816993</v>
+        <v>10.58932446654749</v>
       </c>
       <c r="F4">
-        <v>23.35917853700065</v>
+        <v>20.12961009132065</v>
       </c>
       <c r="G4">
-        <v>2.109618676804781</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>20.85391479643313</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.610744204994412</v>
       </c>
       <c r="J4">
-        <v>6.237878469720236</v>
+        <v>8.896646581759306</v>
       </c>
       <c r="K4">
-        <v>10.572201927164</v>
+        <v>13.47625100374046</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.143122861511139</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.48792015167731</v>
       </c>
       <c r="N4">
-        <v>12.93835340593001</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.85952667123379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.45900816836588</v>
+      </c>
+      <c r="Q4">
+        <v>14.21198348932978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.74910819471864</v>
+        <v>11.01273715489007</v>
       </c>
       <c r="C5">
-        <v>6.421105490342994</v>
+        <v>7.478325325401027</v>
       </c>
       <c r="D5">
-        <v>6.788170443410359</v>
+        <v>7.540957306713782</v>
       </c>
       <c r="E5">
-        <v>10.11462431914607</v>
+        <v>10.46256206713111</v>
       </c>
       <c r="F5">
-        <v>23.27552335501008</v>
+        <v>20.05863764334603</v>
       </c>
       <c r="G5">
-        <v>2.110904244081252</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>20.7961859856264</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.650595299689235</v>
       </c>
       <c r="J5">
-        <v>6.212600108836142</v>
+        <v>8.909477338627163</v>
       </c>
       <c r="K5">
-        <v>10.37056004973331</v>
+        <v>13.50606871190874</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.117160589358834</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.30829785580093</v>
       </c>
       <c r="N5">
-        <v>12.99139948218672</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.85835566934573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.49309173625807</v>
+      </c>
+      <c r="Q5">
+        <v>14.2167149542611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.70705773481444</v>
+        <v>10.96857589647124</v>
       </c>
       <c r="C6">
-        <v>6.402442300117126</v>
+        <v>7.469897903077777</v>
       </c>
       <c r="D6">
-        <v>6.771845586889412</v>
+        <v>7.525603115254991</v>
       </c>
       <c r="E6">
-        <v>10.09402688795016</v>
+        <v>10.44226155287405</v>
       </c>
       <c r="F6">
-        <v>23.26188378001916</v>
+        <v>20.04088803335518</v>
       </c>
       <c r="G6">
-        <v>2.111119210195538</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>20.77626108376406</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.661266490382037</v>
       </c>
       <c r="J6">
-        <v>6.208442754302417</v>
+        <v>8.910041448572567</v>
       </c>
       <c r="K6">
-        <v>10.33669160025095</v>
+        <v>13.50679229434087</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.112735793561707</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.27834098727303</v>
       </c>
       <c r="N6">
-        <v>13.00025170970409</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.85835432924495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.49892830657194</v>
+      </c>
+      <c r="Q6">
+        <v>14.21344073079877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99595843328783</v>
+        <v>11.22175977949666</v>
       </c>
       <c r="C7">
-        <v>6.530843938143774</v>
+        <v>7.614780927245114</v>
       </c>
       <c r="D7">
-        <v>6.884592787551447</v>
+        <v>7.64747958836371</v>
       </c>
       <c r="E7">
-        <v>10.23662540913648</v>
+        <v>10.58980952904367</v>
       </c>
       <c r="F7">
-        <v>23.35803347324252</v>
+        <v>20.11201770689356</v>
       </c>
       <c r="G7">
-        <v>2.10963591426443</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>20.82444238394146</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.621844964403083</v>
       </c>
       <c r="J7">
-        <v>6.237534877885189</v>
+        <v>8.89240582604574</v>
       </c>
       <c r="K7">
-        <v>10.5695083969008</v>
+        <v>13.46490916856958</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.142368963039292</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.48604484960421</v>
       </c>
       <c r="N7">
-        <v>12.93906587026659</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.85949785865607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.45990339363753</v>
+      </c>
+      <c r="Q7">
+        <v>14.20067032031768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.19752925779827</v>
+        <v>12.28413628810751</v>
       </c>
       <c r="C8">
-        <v>7.068929920680206</v>
+        <v>8.20493648093816</v>
       </c>
       <c r="D8">
-        <v>7.367218479779171</v>
+        <v>8.166722878977041</v>
       </c>
       <c r="E8">
-        <v>10.85539702561014</v>
+        <v>11.22753699862613</v>
       </c>
       <c r="F8">
-        <v>23.81895344780087</v>
+        <v>20.46384724798208</v>
       </c>
       <c r="G8">
-        <v>2.10330477766971</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>21.09399087723374</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.512546364872873</v>
       </c>
       <c r="J8">
-        <v>6.37163674689806</v>
+        <v>8.82614046071158</v>
       </c>
       <c r="K8">
-        <v>11.54072534069891</v>
+        <v>13.30124541766908</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.278254068774708</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.35421421452471</v>
       </c>
       <c r="N8">
-        <v>12.67530306899226</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.8934152083751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.29248737451049</v>
+      </c>
+      <c r="Q8">
+        <v>14.17110986878648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.29377398269476</v>
+        <v>14.14115987558928</v>
       </c>
       <c r="C9">
-        <v>8.019800227232885</v>
+        <v>9.234183129983899</v>
       </c>
       <c r="D9">
-        <v>8.252971961332449</v>
+        <v>9.118993018629093</v>
       </c>
       <c r="E9">
-        <v>12.02039426043546</v>
+        <v>12.42249242313814</v>
       </c>
       <c r="F9">
-        <v>24.85449977718941</v>
+        <v>21.25957993366004</v>
       </c>
       <c r="G9">
-        <v>2.091623868749628</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>21.78061205397825</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.826294521201941</v>
       </c>
       <c r="J9">
-        <v>6.654109577041748</v>
+        <v>8.731862173699664</v>
       </c>
       <c r="K9">
-        <v>13.24376119708229</v>
+        <v>13.03906504749398</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.560890224618316</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.88071286574836</v>
       </c>
       <c r="N9">
-        <v>12.17889990978563</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.07119043081092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.98139903117313</v>
+      </c>
+      <c r="Q9">
+        <v>14.19425065362923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.67859007412937</v>
+        <v>15.34749733916677</v>
       </c>
       <c r="C10">
-        <v>8.654051185501723</v>
+        <v>9.949319428506232</v>
       </c>
       <c r="D10">
-        <v>8.862056879080406</v>
+        <v>9.779545399034696</v>
       </c>
       <c r="E10">
-        <v>12.83929621259705</v>
+        <v>13.26128683136854</v>
       </c>
       <c r="F10">
-        <v>25.69475778090341</v>
+        <v>21.88100276756496</v>
       </c>
       <c r="G10">
-        <v>2.083453503028057</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>22.33853752492467</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.04773688717929</v>
       </c>
       <c r="J10">
-        <v>6.872525984867956</v>
+        <v>8.678759678461732</v>
       </c>
       <c r="K10">
-        <v>14.3731856727787</v>
+        <v>12.86553252292967</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.776344446276059</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.89417827644673</v>
       </c>
       <c r="N10">
-        <v>11.82528879938407</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.27620449527813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.76445431993324</v>
+      </c>
+      <c r="Q10">
+        <v>14.24618693997565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27557663928127</v>
+        <v>15.84527203209379</v>
       </c>
       <c r="C11">
-        <v>8.92859651058815</v>
+        <v>10.29681158304394</v>
       </c>
       <c r="D11">
-        <v>9.129410826426092</v>
+        <v>10.07625519322047</v>
       </c>
       <c r="E11">
-        <v>13.20262887388013</v>
+        <v>13.63553529706226</v>
       </c>
       <c r="F11">
-        <v>26.09394911676568</v>
+        <v>22.14843832236999</v>
       </c>
       <c r="G11">
-        <v>2.079817498604399</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>22.56438308959726</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.151116072359461</v>
       </c>
       <c r="J11">
-        <v>6.974042531761571</v>
+        <v>8.651747325820333</v>
       </c>
       <c r="K11">
-        <v>14.86089304985757</v>
+        <v>12.77304270554699</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.875184281624737</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.3322463488331</v>
       </c>
       <c r="N11">
-        <v>11.66645319086763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.38695500052982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.67004374333931</v>
+      </c>
+      <c r="Q11">
+        <v>14.26125838531616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.49695815097418</v>
+        <v>16.03935365110094</v>
       </c>
       <c r="C12">
-        <v>9.030554659939579</v>
+        <v>10.40815789124454</v>
       </c>
       <c r="D12">
-        <v>9.229212422359419</v>
+        <v>10.18380515347513</v>
       </c>
       <c r="E12">
-        <v>13.338819377098</v>
+        <v>13.77423136644379</v>
       </c>
       <c r="F12">
-        <v>26.24751797023633</v>
+        <v>22.26416500797515</v>
       </c>
       <c r="G12">
-        <v>2.07845150895677</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>22.6750386572548</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.187451364466591</v>
       </c>
       <c r="J12">
-        <v>7.012777749555273</v>
+        <v>8.64597329010453</v>
       </c>
       <c r="K12">
-        <v>15.04185974721967</v>
+        <v>12.74921752419112</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.913124061816649</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.49437392021852</v>
       </c>
       <c r="N12">
-        <v>11.60656423175045</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.43151104277348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.63372054361199</v>
+      </c>
+      <c r="Q12">
+        <v>14.27804491261367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.44948708880947</v>
+        <v>15.99975885376768</v>
       </c>
       <c r="C13">
-        <v>9.008685262539277</v>
+        <v>10.38061065271105</v>
       </c>
       <c r="D13">
-        <v>9.207782932231428</v>
+        <v>10.16005590861997</v>
       </c>
       <c r="E13">
-        <v>13.30955138889492</v>
+        <v>13.74413817643764</v>
       </c>
       <c r="F13">
-        <v>26.21433780143698</v>
+        <v>22.24180344502405</v>
       </c>
       <c r="G13">
-        <v>2.07874522710673</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>22.65568559703418</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.179074001313289</v>
       </c>
       <c r="J13">
-        <v>7.004422649822688</v>
+        <v>8.647953210013142</v>
       </c>
       <c r="K13">
-        <v>15.00305011534487</v>
+        <v>12.75638500187665</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.905010865254975</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.45953761116824</v>
       </c>
       <c r="N13">
-        <v>11.61945142619663</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.42179711317765</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.64133108194743</v>
+      </c>
+      <c r="Q13">
+        <v>14.27629879912152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.29388337675764</v>
+        <v>15.8621876414725</v>
       </c>
       <c r="C14">
-        <v>8.937024837125803</v>
+        <v>10.30444752234437</v>
       </c>
       <c r="D14">
-        <v>9.137650613302206</v>
+        <v>10.08485377689664</v>
       </c>
       <c r="E14">
-        <v>13.213861684368</v>
+        <v>13.64685208684183</v>
       </c>
       <c r="F14">
-        <v>26.10653533838649</v>
+        <v>22.15905043372047</v>
       </c>
       <c r="G14">
-        <v>2.079704903942965</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>22.57539391630486</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.15386331231251</v>
       </c>
       <c r="J14">
-        <v>6.977223520595126</v>
+        <v>8.651584478989996</v>
       </c>
       <c r="K14">
-        <v>14.87585559563511</v>
+        <v>12.77194602902273</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.878330012701117</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.34562264091396</v>
       </c>
       <c r="N14">
-        <v>11.661521099758</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.39056762788205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.66696592476836</v>
+      </c>
+      <c r="Q14">
+        <v>14.26343292247917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.19796329796915</v>
+        <v>15.77332133091791</v>
       </c>
       <c r="C15">
-        <v>8.892869686819477</v>
+        <v>10.26485277842832</v>
       </c>
       <c r="D15">
-        <v>9.09450402723915</v>
+        <v>10.03990206448738</v>
       </c>
       <c r="E15">
-        <v>13.15506530838845</v>
+        <v>13.58764349983364</v>
       </c>
       <c r="F15">
-        <v>26.04081524697192</v>
+        <v>22.10333157231378</v>
       </c>
       <c r="G15">
-        <v>2.080294129187165</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>22.51742010865104</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.139602333980904</v>
       </c>
       <c r="J15">
-        <v>6.960600953216321</v>
+        <v>8.652385624380091</v>
       </c>
       <c r="K15">
-        <v>14.7974621693967</v>
+        <v>12.77751261249822</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.861880489169854</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.27554479090234</v>
       </c>
       <c r="N15">
-        <v>11.68732267452229</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.37178247561707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.68309121139543</v>
+      </c>
+      <c r="Q15">
+        <v>14.25192304496334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.63891693818745</v>
+        <v>15.27987501227068</v>
       </c>
       <c r="C16">
-        <v>8.635827940862278</v>
+        <v>9.988875781224818</v>
       </c>
       <c r="D16">
-        <v>8.844385233866054</v>
+        <v>9.771183274527994</v>
       </c>
       <c r="E16">
-        <v>12.81535990627261</v>
+        <v>13.24164455840696</v>
       </c>
       <c r="F16">
-        <v>25.66900792373541</v>
+        <v>21.81949684653974</v>
       </c>
       <c r="G16">
-        <v>2.083692688267853</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>22.24693016756391</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.05003941769009</v>
       </c>
       <c r="J16">
-        <v>6.865933560981631</v>
+        <v>8.667894404757655</v>
       </c>
       <c r="K16">
-        <v>14.34079080549439</v>
+        <v>12.83730926650998</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.768810716685605</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.86628724438722</v>
       </c>
       <c r="N16">
-        <v>11.83570708406809</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.26932745148282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.77370500642314</v>
+      </c>
+      <c r="Q16">
+        <v>14.21312737072723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.28755498384167</v>
+        <v>14.96880600340418</v>
       </c>
       <c r="C17">
-        <v>8.474562124491635</v>
+        <v>9.816660935456664</v>
       </c>
       <c r="D17">
-        <v>8.688422295068229</v>
+        <v>9.603783849070004</v>
       </c>
       <c r="E17">
-        <v>12.60454955288362</v>
+        <v>13.0267541616105</v>
       </c>
       <c r="F17">
-        <v>25.44523427602695</v>
+        <v>21.64777138256353</v>
       </c>
       <c r="G17">
-        <v>2.085797771936905</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>22.08493123590346</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.994767046830054</v>
       </c>
       <c r="J17">
-        <v>6.808398217012972</v>
+        <v>8.678584012369338</v>
       </c>
       <c r="K17">
-        <v>14.05398092937858</v>
+        <v>12.87569659821044</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.71206936094419</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.60917007320538</v>
       </c>
       <c r="N17">
-        <v>11.92723208012336</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.21102802620699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.82986846717866</v>
+      </c>
+      <c r="Q17">
+        <v>14.19192611808512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08235376208368</v>
+        <v>14.79755415214679</v>
       </c>
       <c r="C18">
-        <v>8.380489997299254</v>
+        <v>9.697063851264227</v>
       </c>
       <c r="D18">
-        <v>8.597803195148259</v>
+        <v>9.503081181991167</v>
       </c>
       <c r="E18">
-        <v>12.48243529845244</v>
+        <v>12.90064997435739</v>
       </c>
       <c r="F18">
-        <v>25.31812352489381</v>
+        <v>21.56346373271525</v>
       </c>
       <c r="G18">
-        <v>2.087016205532845</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>22.01684688981411</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.959114437188946</v>
       </c>
       <c r="J18">
-        <v>6.77550947554284</v>
+        <v>8.689007719104195</v>
       </c>
       <c r="K18">
-        <v>13.88655912114097</v>
+        <v>12.90875373644595</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.679908067034436</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.45868087872579</v>
       </c>
       <c r="N18">
-        <v>11.98006739212617</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.17913598985195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.86150888232046</v>
+      </c>
+      <c r="Q18">
+        <v>14.19047518121182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.01234079110967</v>
+        <v>14.73077003047521</v>
       </c>
       <c r="C19">
-        <v>8.34841267694839</v>
+        <v>9.671375275692906</v>
       </c>
       <c r="D19">
-        <v>8.566965708143989</v>
+        <v>9.471523803487035</v>
       </c>
       <c r="E19">
-        <v>12.44094405508263</v>
+        <v>12.85900125847469</v>
       </c>
       <c r="F19">
-        <v>25.27536149067657</v>
+        <v>21.52462286999845</v>
       </c>
       <c r="G19">
-        <v>2.087430080586693</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>21.975826173</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.949816860560293</v>
       </c>
       <c r="J19">
-        <v>6.764409506540722</v>
+        <v>8.689637068661398</v>
       </c>
       <c r="K19">
-        <v>13.82945019410924</v>
+        <v>12.91204966546245</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.668783772350646</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.40763854668582</v>
       </c>
       <c r="N19">
-        <v>11.99799054544999</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.16861642113316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.87293521129757</v>
+      </c>
+      <c r="Q19">
+        <v>14.18258059877066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.32527923026586</v>
+        <v>15.00307179328549</v>
       </c>
       <c r="C20">
-        <v>8.491865364362685</v>
+        <v>9.833591706613417</v>
       </c>
       <c r="D20">
-        <v>8.705119679966549</v>
+        <v>9.621427575561189</v>
       </c>
       <c r="E20">
-        <v>12.62708045129507</v>
+        <v>13.04960576083289</v>
       </c>
       <c r="F20">
-        <v>25.4688902303547</v>
+        <v>21.66701828454171</v>
       </c>
       <c r="G20">
-        <v>2.085572896039936</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>22.10387273610538</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.000365965113444</v>
       </c>
       <c r="J20">
-        <v>6.814501961303715</v>
+        <v>8.677704407606374</v>
       </c>
       <c r="K20">
-        <v>14.08476633662947</v>
+        <v>12.87236073885363</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.718121799423106</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.63674120653248</v>
       </c>
       <c r="N20">
-        <v>11.91746938730264</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.21706358496472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.82379737603124</v>
+      </c>
+      <c r="Q20">
+        <v>14.19485415715946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.33971462590888</v>
+        <v>15.89147515901874</v>
       </c>
       <c r="C21">
-        <v>8.958127634483997</v>
+        <v>10.34736242128637</v>
       </c>
       <c r="D21">
-        <v>9.158289520829223</v>
+        <v>10.11065648251136</v>
       </c>
       <c r="E21">
-        <v>13.24200645517138</v>
+        <v>13.67711245221452</v>
       </c>
       <c r="F21">
-        <v>26.13813456830043</v>
+        <v>22.1686140732993</v>
       </c>
       <c r="G21">
-        <v>2.079422734134459</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>22.57323172416071</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.164738149605137</v>
       </c>
       <c r="J21">
-        <v>6.985204739337529</v>
+        <v>8.646205924911829</v>
       </c>
       <c r="K21">
-        <v>14.91331632622951</v>
+        <v>12.75571445970974</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.885793894360102</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.3795713152023</v>
       </c>
       <c r="N21">
-        <v>11.64915746617488</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.39966865824475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.66052771014385</v>
+      </c>
+      <c r="Q21">
+        <v>14.25632235831222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.97543073868238</v>
+        <v>16.45915354041635</v>
       </c>
       <c r="C22">
-        <v>9.251168320033038</v>
+        <v>10.64758407485116</v>
       </c>
       <c r="D22">
-        <v>9.446059686226778</v>
+        <v>10.41718662110756</v>
       </c>
       <c r="E22">
-        <v>13.63573840319226</v>
+        <v>14.07620817451822</v>
       </c>
       <c r="F22">
-        <v>26.58952037223599</v>
+        <v>22.5227179447791</v>
       </c>
       <c r="G22">
-        <v>2.075466332253727</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>22.92538885003406</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.266566398187648</v>
       </c>
       <c r="J22">
-        <v>7.098470439853218</v>
+        <v>8.635036937725248</v>
       </c>
       <c r="K22">
-        <v>15.43317094448952</v>
+        <v>12.70003126529113</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.996906782879593</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.84474602073782</v>
       </c>
       <c r="N22">
-        <v>11.47529106788003</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.5343114862102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.55429565045809</v>
+      </c>
+      <c r="Q22">
+        <v>14.31899705372171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.63861347129208</v>
+        <v>16.1720790480729</v>
       </c>
       <c r="C23">
-        <v>9.095834014960282</v>
+        <v>10.46374405689217</v>
       </c>
       <c r="D23">
-        <v>9.29325110709263</v>
+        <v>10.24999739895731</v>
       </c>
       <c r="E23">
-        <v>13.42636282924326</v>
+        <v>13.86208437469086</v>
       </c>
       <c r="F23">
-        <v>26.34733771080798</v>
+        <v>22.35069363748552</v>
       </c>
       <c r="G23">
-        <v>2.077572417318451</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>22.76709716032092</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.208567010124016</v>
       </c>
       <c r="J23">
-        <v>7.037868000094607</v>
+        <v>8.645800006833072</v>
       </c>
       <c r="K23">
-        <v>15.15768417497046</v>
+        <v>12.74325005684665</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.937956613731838</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.59781222729876</v>
       </c>
       <c r="N23">
-        <v>11.56796167969633</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.46101736133821</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.60947810222477</v>
+      </c>
+      <c r="Q23">
+        <v>14.29778774154817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.30823406554236</v>
+        <v>15.01007574719574</v>
       </c>
       <c r="C24">
-        <v>8.484046800539373</v>
+        <v>9.785180674089814</v>
       </c>
       <c r="D24">
-        <v>8.697573760257853</v>
+        <v>9.606126042871216</v>
       </c>
       <c r="E24">
-        <v>12.6168970812272</v>
+        <v>13.03599800334329</v>
       </c>
       <c r="F24">
-        <v>25.4581905749608</v>
+        <v>21.68687941166258</v>
       </c>
       <c r="G24">
-        <v>2.08567453685947</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>22.14511620764553</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.990963647205047</v>
       </c>
       <c r="J24">
-        <v>6.811741868199261</v>
+        <v>8.68625435024005</v>
       </c>
       <c r="K24">
-        <v>14.07085613984058</v>
+        <v>12.89585275926365</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.716095077166792</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.62348994261848</v>
       </c>
       <c r="N24">
-        <v>11.92188242435082</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.21432985489339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.8246574225882</v>
+      </c>
+      <c r="Q24">
+        <v>14.21425693146581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.75419347630309</v>
+        <v>13.64190852474884</v>
       </c>
       <c r="C25">
-        <v>7.773839164215763</v>
+        <v>9.007226694544869</v>
       </c>
       <c r="D25">
-        <v>8.020393357906924</v>
+        <v>8.875898309905669</v>
       </c>
       <c r="E25">
-        <v>11.71127115562867</v>
+        <v>12.10916292252655</v>
       </c>
       <c r="F25">
-        <v>24.56031322891021</v>
+        <v>21.0076939243314</v>
       </c>
       <c r="G25">
-        <v>2.09470885195599</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>21.53339813715244</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.748638522492101</v>
       </c>
       <c r="J25">
-        <v>6.575708512329975</v>
+        <v>8.746312535379834</v>
       </c>
       <c r="K25">
-        <v>12.80453398168818</v>
+        <v>13.08444710204969</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.48221797563551</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.48752570175817</v>
       </c>
       <c r="N25">
-        <v>12.31111984506822</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.01049321452809</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.06510277720996</v>
+      </c>
+      <c r="Q25">
+        <v>14.16080217135245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.57501728210831</v>
+        <v>12.43596490028059</v>
       </c>
       <c r="C2">
-        <v>8.323787426816002</v>
+        <v>8.477248880402318</v>
       </c>
       <c r="D2">
-        <v>8.297321611150563</v>
+        <v>8.366281619731383</v>
       </c>
       <c r="E2">
-        <v>11.39429637386746</v>
+        <v>11.42615790014527</v>
       </c>
       <c r="F2">
-        <v>20.58736099421954</v>
+        <v>20.30967131782104</v>
       </c>
       <c r="G2">
-        <v>21.21395981750926</v>
+        <v>20.112633528932</v>
       </c>
       <c r="I2">
-        <v>2.554242066166483</v>
+        <v>2.615552480747218</v>
       </c>
       <c r="J2">
-        <v>8.816219549594829</v>
+        <v>9.147712961145908</v>
       </c>
       <c r="K2">
-        <v>13.27597184052461</v>
+        <v>12.95709936694949</v>
       </c>
       <c r="L2">
-        <v>6.316729333481484</v>
+        <v>11.3320643091108</v>
       </c>
       <c r="M2">
-        <v>11.5769848707585</v>
+        <v>7.826972837864909</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.309190293856608</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.58508434370305</v>
       </c>
       <c r="P2">
-        <v>12.24746820472709</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.18304506392444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.2015189790263</v>
+      </c>
+      <c r="S2">
+        <v>13.96826060396073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.76783140037895</v>
+        <v>11.67383873247858</v>
       </c>
       <c r="C3">
-        <v>7.875039040308371</v>
+        <v>7.941517436264308</v>
       </c>
       <c r="D3">
-        <v>7.8966111748017</v>
+        <v>7.956350215149185</v>
       </c>
       <c r="E3">
-        <v>10.89903810638807</v>
+        <v>10.92679486933166</v>
       </c>
       <c r="F3">
-        <v>20.29764522667561</v>
+        <v>20.04761506988116</v>
       </c>
       <c r="G3">
-        <v>20.98259082422742</v>
+        <v>19.95253429038547</v>
       </c>
       <c r="I3">
-        <v>2.523087327356596</v>
+        <v>2.497394497260824</v>
       </c>
       <c r="J3">
-        <v>8.863955160318561</v>
+        <v>9.167504795404861</v>
       </c>
       <c r="K3">
-        <v>13.39721878577794</v>
+        <v>13.08776551196795</v>
       </c>
       <c r="L3">
-        <v>6.20787757757614</v>
+        <v>11.49812574724494</v>
       </c>
       <c r="M3">
-        <v>10.9157587210676</v>
+        <v>7.882676366122672</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.200686767075</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.92609301112842</v>
       </c>
       <c r="P3">
-        <v>12.37708891517608</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.1964169759707</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.31705456585304</v>
+      </c>
+      <c r="S3">
+        <v>13.99668175598011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.24044826408657</v>
+        <v>11.17595521705903</v>
       </c>
       <c r="C4">
-        <v>7.58913103118757</v>
+        <v>7.599076333970093</v>
       </c>
       <c r="D4">
-        <v>7.643944112036445</v>
+        <v>7.697927660649138</v>
       </c>
       <c r="E4">
-        <v>10.58932446654749</v>
+        <v>10.61446049851465</v>
       </c>
       <c r="F4">
-        <v>20.12961009132065</v>
+        <v>19.89528139743864</v>
       </c>
       <c r="G4">
-        <v>20.85391479643313</v>
+        <v>19.86920457017534</v>
       </c>
       <c r="I4">
-        <v>2.610744204994412</v>
+        <v>2.528327819491821</v>
       </c>
       <c r="J4">
-        <v>8.896646581759306</v>
+        <v>9.181259726842574</v>
       </c>
       <c r="K4">
-        <v>13.47625100374046</v>
+        <v>13.17136901453052</v>
       </c>
       <c r="L4">
-        <v>6.143122861511139</v>
+        <v>11.60358806958678</v>
       </c>
       <c r="M4">
-        <v>10.48792015167731</v>
+        <v>7.936730524088402</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.136070357776024</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.49972398608499</v>
       </c>
       <c r="P4">
-        <v>12.45900816836588</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.21198348932978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.39050021513957</v>
+      </c>
+      <c r="S4">
+        <v>14.02032003432549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.01273715489007</v>
+        <v>10.9607433865667</v>
       </c>
       <c r="C5">
-        <v>7.478325325401027</v>
+        <v>7.464986310984129</v>
       </c>
       <c r="D5">
-        <v>7.540957306713782</v>
+        <v>7.592593764754343</v>
       </c>
       <c r="E5">
-        <v>10.46256206713111</v>
+        <v>10.48661613545209</v>
       </c>
       <c r="F5">
-        <v>20.05863764334603</v>
+        <v>19.83033087613996</v>
       </c>
       <c r="G5">
-        <v>20.7961859856264</v>
+        <v>19.83012700536713</v>
       </c>
       <c r="I5">
-        <v>2.650595299689235</v>
+        <v>2.564897283957707</v>
       </c>
       <c r="J5">
-        <v>8.909477338627163</v>
+        <v>9.185909930232116</v>
       </c>
       <c r="K5">
-        <v>13.50606871190874</v>
+        <v>13.2027977546677</v>
       </c>
       <c r="L5">
-        <v>6.117160589358834</v>
+        <v>11.64397743462164</v>
       </c>
       <c r="M5">
-        <v>10.30829785580093</v>
+        <v>7.961989933713556</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.110144373014601</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.32073659227205</v>
       </c>
       <c r="P5">
-        <v>12.49309173625807</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.2167149542611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.42121144759038</v>
+      </c>
+      <c r="S5">
+        <v>14.02803948169942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.96857589647124</v>
+        <v>10.91869385105014</v>
       </c>
       <c r="C6">
-        <v>7.469897903077777</v>
+        <v>7.453291413859615</v>
       </c>
       <c r="D6">
-        <v>7.525603115254991</v>
+        <v>7.576863943391579</v>
       </c>
       <c r="E6">
-        <v>10.44226155287405</v>
+        <v>10.46614200361162</v>
       </c>
       <c r="F6">
-        <v>20.04088803335518</v>
+        <v>19.81351078144079</v>
       </c>
       <c r="G6">
-        <v>20.77626108376406</v>
+        <v>19.81311865577138</v>
       </c>
       <c r="I6">
-        <v>2.661266490382037</v>
+        <v>2.575745151797145</v>
       </c>
       <c r="J6">
-        <v>8.910041448572567</v>
+        <v>9.185053008904692</v>
       </c>
       <c r="K6">
-        <v>13.50679229434087</v>
+        <v>13.20382484464412</v>
       </c>
       <c r="L6">
-        <v>6.112735793561707</v>
+        <v>11.64650435264072</v>
       </c>
       <c r="M6">
-        <v>10.27834098727303</v>
+        <v>7.964431611556737</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.10572260972808</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.29089503912515</v>
       </c>
       <c r="P6">
-        <v>12.49892830657194</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.21344073079877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.4265408975606</v>
+      </c>
+      <c r="S6">
+        <v>14.02522957680041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.22175977949666</v>
+        <v>11.1548330927771</v>
       </c>
       <c r="C7">
-        <v>7.614780927245114</v>
+        <v>7.619913214173526</v>
       </c>
       <c r="D7">
-        <v>7.64747958836371</v>
+        <v>7.704672480810314</v>
       </c>
       <c r="E7">
-        <v>10.58980952904367</v>
+        <v>10.61637287612421</v>
       </c>
       <c r="F7">
-        <v>20.11201770689356</v>
+        <v>19.86700752440223</v>
       </c>
       <c r="G7">
-        <v>20.82444238394146</v>
+        <v>19.91859246809506</v>
       </c>
       <c r="I7">
-        <v>2.621844964403083</v>
+        <v>2.541741128256667</v>
       </c>
       <c r="J7">
-        <v>8.89240582604574</v>
+        <v>9.145524686880689</v>
       </c>
       <c r="K7">
-        <v>13.46490916856958</v>
+        <v>13.15631999487387</v>
       </c>
       <c r="L7">
-        <v>6.142368963039292</v>
+        <v>11.58906277048861</v>
       </c>
       <c r="M7">
-        <v>10.48604484960421</v>
+        <v>7.929039544556024</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.135057727695363</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.4941433931088</v>
       </c>
       <c r="P7">
-        <v>12.45990339363753</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.20067032031768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.39185743850844</v>
+      </c>
+      <c r="S7">
+        <v>14.00189286252616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.28413628810751</v>
+        <v>12.15220938417138</v>
       </c>
       <c r="C8">
-        <v>8.20493648093816</v>
+        <v>8.311836660331913</v>
       </c>
       <c r="D8">
-        <v>8.166722878977041</v>
+        <v>8.242584269751404</v>
       </c>
       <c r="E8">
-        <v>11.22753699862613</v>
+        <v>11.26248783571459</v>
       </c>
       <c r="F8">
-        <v>20.46384724798208</v>
+        <v>20.16106013985297</v>
       </c>
       <c r="G8">
-        <v>21.09399087723374</v>
+        <v>20.27790783227447</v>
       </c>
       <c r="I8">
-        <v>2.512546364872873</v>
+        <v>2.578425194687445</v>
       </c>
       <c r="J8">
-        <v>8.82614046071158</v>
+        <v>9.046097968021654</v>
       </c>
       <c r="K8">
-        <v>13.30124541766908</v>
+        <v>12.97339688154997</v>
       </c>
       <c r="L8">
-        <v>6.278254068774708</v>
+        <v>11.36381344620688</v>
       </c>
       <c r="M8">
-        <v>11.35421421452471</v>
+        <v>7.823960664063416</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.270002475999299</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.35151919924572</v>
       </c>
       <c r="P8">
-        <v>12.29248737451049</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.17110986878648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.24338539757057</v>
+      </c>
+      <c r="S8">
+        <v>13.93817321345927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.14115987558928</v>
+        <v>13.90548002533565</v>
       </c>
       <c r="C9">
-        <v>9.234183129983899</v>
+        <v>9.535880259502258</v>
       </c>
       <c r="D9">
-        <v>9.118993018629093</v>
+        <v>9.218430328636003</v>
       </c>
       <c r="E9">
-        <v>12.42249242313814</v>
+        <v>12.46757225215416</v>
       </c>
       <c r="F9">
-        <v>21.25957993366004</v>
+        <v>20.87333706439482</v>
       </c>
       <c r="G9">
-        <v>21.78061205397825</v>
+        <v>20.86255189780486</v>
       </c>
       <c r="I9">
-        <v>2.826294521201941</v>
+        <v>2.858006323355427</v>
       </c>
       <c r="J9">
-        <v>8.731862173699664</v>
+        <v>8.982876755923815</v>
       </c>
       <c r="K9">
-        <v>13.03906504749398</v>
+        <v>12.67682101107866</v>
       </c>
       <c r="L9">
-        <v>6.560890224618316</v>
+        <v>10.98111219492265</v>
       </c>
       <c r="M9">
-        <v>12.88071286574836</v>
+        <v>7.799649107195222</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.551122632627163</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.87111807419146</v>
       </c>
       <c r="P9">
-        <v>11.98139903117313</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.19425065362923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.96940829866016</v>
+      </c>
+      <c r="S9">
+        <v>13.91078024998423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.34749733916677</v>
+        <v>15.03201690437455</v>
       </c>
       <c r="C10">
-        <v>9.949319428506232</v>
+        <v>10.35113598632867</v>
       </c>
       <c r="D10">
-        <v>9.779545399034696</v>
+        <v>9.910051463687125</v>
       </c>
       <c r="E10">
-        <v>13.26128683136854</v>
+        <v>13.31955337515843</v>
       </c>
       <c r="F10">
-        <v>21.88100276756496</v>
+        <v>21.3710441045464</v>
       </c>
       <c r="G10">
-        <v>22.33853752492467</v>
+        <v>21.79935146538795</v>
       </c>
       <c r="I10">
-        <v>3.04773688717929</v>
+        <v>3.054689340124668</v>
       </c>
       <c r="J10">
-        <v>8.678759678461732</v>
+        <v>8.770707367406057</v>
       </c>
       <c r="K10">
-        <v>12.86553252292967</v>
+        <v>12.44879519761753</v>
       </c>
       <c r="L10">
-        <v>6.776344446276059</v>
+        <v>10.69775333850802</v>
       </c>
       <c r="M10">
-        <v>13.89417827644673</v>
+        <v>7.856207673974828</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.763619487346699</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.86262494874773</v>
       </c>
       <c r="P10">
-        <v>11.76445431993324</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.24618693997565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.7851038584473</v>
+      </c>
+      <c r="S10">
+        <v>13.87850094584782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84527203209379</v>
+        <v>15.47547468217128</v>
       </c>
       <c r="C11">
-        <v>10.29681158304394</v>
+        <v>10.69484418649659</v>
       </c>
       <c r="D11">
-        <v>10.07625519322047</v>
+        <v>10.24588908141493</v>
       </c>
       <c r="E11">
-        <v>13.63553529706226</v>
+        <v>13.71085087943126</v>
       </c>
       <c r="F11">
-        <v>22.14843832236999</v>
+        <v>21.48054420966303</v>
       </c>
       <c r="G11">
-        <v>22.56438308959726</v>
+        <v>22.98335142928172</v>
       </c>
       <c r="I11">
-        <v>3.151116072359461</v>
+        <v>3.145731312250673</v>
       </c>
       <c r="J11">
-        <v>8.651747325820333</v>
+        <v>8.397486388784605</v>
       </c>
       <c r="K11">
-        <v>12.77304270554699</v>
+        <v>12.2911703900281</v>
       </c>
       <c r="L11">
-        <v>6.875184281624737</v>
+        <v>10.53710265694347</v>
       </c>
       <c r="M11">
-        <v>14.3322463488331</v>
+        <v>7.847734563110302</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.858465683815719</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.26196260049431</v>
       </c>
       <c r="P11">
-        <v>11.67004374333931</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.26125838531616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.71419020843775</v>
+      </c>
+      <c r="S11">
+        <v>13.78129199768442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.03935365110094</v>
+        <v>15.64702919051043</v>
       </c>
       <c r="C12">
-        <v>10.40815789124454</v>
+        <v>10.79811382008144</v>
       </c>
       <c r="D12">
-        <v>10.18380515347513</v>
+        <v>10.37109884573756</v>
       </c>
       <c r="E12">
-        <v>13.77423136644379</v>
+        <v>13.85725638353199</v>
       </c>
       <c r="F12">
-        <v>22.26416500797515</v>
+        <v>21.52382354370438</v>
       </c>
       <c r="G12">
-        <v>22.6750386572548</v>
+        <v>23.55808196945262</v>
       </c>
       <c r="I12">
-        <v>3.187451364466591</v>
+        <v>3.176250011426686</v>
       </c>
       <c r="J12">
-        <v>8.64597329010453</v>
+        <v>8.239024171653313</v>
       </c>
       <c r="K12">
-        <v>12.74921752419112</v>
+        <v>12.23655775215698</v>
       </c>
       <c r="L12">
-        <v>6.913124061816649</v>
+        <v>10.48070153111121</v>
       </c>
       <c r="M12">
-        <v>14.49437392021852</v>
+        <v>7.850765343037835</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.894556450805508</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.40616707517487</v>
       </c>
       <c r="P12">
-        <v>11.63372054361199</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.27804491261367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.68772423323274</v>
+      </c>
+      <c r="S12">
+        <v>13.74576179198892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.99975885376768</v>
+        <v>15.61237584532089</v>
       </c>
       <c r="C13">
-        <v>10.38061065271105</v>
+        <v>10.77239962488565</v>
       </c>
       <c r="D13">
-        <v>10.16005590861997</v>
+        <v>10.34341416278948</v>
       </c>
       <c r="E13">
-        <v>13.74413817643764</v>
+        <v>13.82544422025838</v>
       </c>
       <c r="F13">
-        <v>22.24180344502405</v>
+        <v>21.51762577925944</v>
       </c>
       <c r="G13">
-        <v>22.65568559703418</v>
+        <v>23.43439488701571</v>
       </c>
       <c r="I13">
-        <v>3.179074001313289</v>
+        <v>3.168936572139427</v>
       </c>
       <c r="J13">
-        <v>8.647953210013142</v>
+        <v>8.274310604728443</v>
       </c>
       <c r="K13">
-        <v>12.75638500187665</v>
+        <v>12.25044635092959</v>
       </c>
       <c r="L13">
-        <v>6.905010865254975</v>
+        <v>10.49412135127837</v>
       </c>
       <c r="M13">
-        <v>14.45953761116824</v>
+        <v>7.852045855968889</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.886857303835763</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.37532998042519</v>
       </c>
       <c r="P13">
-        <v>11.64133108194743</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.27629879912152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.69307624563932</v>
+      </c>
+      <c r="S13">
+        <v>13.75567299602072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.8621876414725</v>
+        <v>15.49057748300596</v>
       </c>
       <c r="C14">
-        <v>10.30444752234437</v>
+        <v>10.70186033582325</v>
       </c>
       <c r="D14">
-        <v>10.08485377689664</v>
+        <v>10.25588110964309</v>
       </c>
       <c r="E14">
-        <v>13.64685208684183</v>
+        <v>13.72277557024448</v>
       </c>
       <c r="F14">
-        <v>22.15905043372047</v>
+        <v>21.48544890553925</v>
       </c>
       <c r="G14">
-        <v>22.57539391630486</v>
+        <v>23.030564307324</v>
       </c>
       <c r="I14">
-        <v>3.15386331231251</v>
+        <v>3.147918996443513</v>
       </c>
       <c r="J14">
-        <v>8.651584478989996</v>
+        <v>8.385002144837603</v>
       </c>
       <c r="K14">
-        <v>12.77194602902273</v>
+        <v>12.28758854461124</v>
       </c>
       <c r="L14">
-        <v>6.878330012701117</v>
+        <v>10.53301441423658</v>
       </c>
       <c r="M14">
-        <v>14.34562264091396</v>
+        <v>7.848803782697189</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.86146639647765</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.27392727263929</v>
       </c>
       <c r="P14">
-        <v>11.66696592476836</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.26343292247917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.71186623312693</v>
+      </c>
+      <c r="S14">
+        <v>13.77933996670494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.77332133091791</v>
+        <v>15.41111111696386</v>
       </c>
       <c r="C15">
-        <v>10.26485277842832</v>
+        <v>10.66529714669409</v>
       </c>
       <c r="D15">
-        <v>10.03990206448738</v>
+        <v>10.20375907299385</v>
       </c>
       <c r="E15">
-        <v>13.58764349983364</v>
+        <v>13.66043949428218</v>
       </c>
       <c r="F15">
-        <v>22.10333157231378</v>
+        <v>21.45906082259207</v>
       </c>
       <c r="G15">
-        <v>22.51742010865104</v>
+        <v>22.78737653789899</v>
       </c>
       <c r="I15">
-        <v>3.139602333980904</v>
+        <v>3.136605744099602</v>
       </c>
       <c r="J15">
-        <v>8.652385624380091</v>
+        <v>8.449460958182366</v>
       </c>
       <c r="K15">
-        <v>12.77751261249822</v>
+        <v>12.30593180179602</v>
       </c>
       <c r="L15">
-        <v>6.861880489169854</v>
+        <v>10.55417146904869</v>
       </c>
       <c r="M15">
-        <v>14.27554479090234</v>
+        <v>7.842935831520085</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.845761307743698</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.21110128046613</v>
       </c>
       <c r="P15">
-        <v>11.68309121139543</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.25192304496334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.72410451541884</v>
+      </c>
+      <c r="S15">
+        <v>13.78901555468939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.27987501227068</v>
+        <v>14.96761440993548</v>
       </c>
       <c r="C16">
-        <v>9.988875781224818</v>
+        <v>10.39312582333328</v>
       </c>
       <c r="D16">
-        <v>9.771183274527994</v>
+        <v>9.899615085780377</v>
       </c>
       <c r="E16">
-        <v>13.24164455840696</v>
+        <v>13.29901390165583</v>
       </c>
       <c r="F16">
-        <v>21.81949684653974</v>
+        <v>21.31817512781482</v>
       </c>
       <c r="G16">
-        <v>22.24693016756391</v>
+        <v>21.65660510340543</v>
       </c>
       <c r="I16">
-        <v>3.05003941769009</v>
+        <v>3.060906653171388</v>
       </c>
       <c r="J16">
-        <v>8.667894404757655</v>
+        <v>8.780252329194225</v>
       </c>
       <c r="K16">
-        <v>12.83730926650998</v>
+        <v>12.42615789786165</v>
       </c>
       <c r="L16">
-        <v>6.768810716685605</v>
+        <v>10.68652083298901</v>
       </c>
       <c r="M16">
-        <v>13.86628724438722</v>
+        <v>7.827229439497825</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.756292655344498</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.83686686286924</v>
       </c>
       <c r="P16">
-        <v>11.77370500642314</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.21312737072723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.79395171811045</v>
+      </c>
+      <c r="S16">
+        <v>13.85202763572074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.96880600340418</v>
+        <v>14.68362595575889</v>
       </c>
       <c r="C17">
-        <v>9.816660935456664</v>
+        <v>10.21280608365574</v>
       </c>
       <c r="D17">
-        <v>9.603783849070004</v>
+        <v>9.715585195570851</v>
       </c>
       <c r="E17">
-        <v>13.0267541616105</v>
+        <v>13.07690914455226</v>
       </c>
       <c r="F17">
-        <v>21.64777138256353</v>
+        <v>21.21237724161304</v>
       </c>
       <c r="G17">
-        <v>22.08493123590346</v>
+        <v>21.13813236141334</v>
       </c>
       <c r="I17">
-        <v>2.994767046830054</v>
+        <v>3.013651458077971</v>
       </c>
       <c r="J17">
-        <v>8.678584012369338</v>
+        <v>8.932362378260571</v>
       </c>
       <c r="K17">
-        <v>12.87569659821044</v>
+        <v>12.49235129686829</v>
       </c>
       <c r="L17">
-        <v>6.71206936094419</v>
+        <v>10.76388262950589</v>
       </c>
       <c r="M17">
-        <v>13.60917007320538</v>
+        <v>7.814326354081786</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.701183241770196</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.59538450360492</v>
       </c>
       <c r="P17">
-        <v>11.82986846717866</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.19192611808512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.83930800617931</v>
+      </c>
+      <c r="S17">
+        <v>13.87698913346629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.79755415214679</v>
+        <v>14.52664590609766</v>
       </c>
       <c r="C18">
-        <v>9.697063851264227</v>
+        <v>10.0836865916453</v>
       </c>
       <c r="D18">
-        <v>9.503081181991167</v>
+        <v>9.607162519952746</v>
       </c>
       <c r="E18">
-        <v>12.90064997435739</v>
+        <v>12.94746787218087</v>
       </c>
       <c r="F18">
-        <v>21.56346373271525</v>
+        <v>21.15823742997055</v>
       </c>
       <c r="G18">
-        <v>22.01684688981411</v>
+        <v>20.92567378921841</v>
       </c>
       <c r="I18">
-        <v>2.959114437188946</v>
+        <v>2.981281871187803</v>
       </c>
       <c r="J18">
-        <v>8.689007719104195</v>
+        <v>9.002250410326916</v>
       </c>
       <c r="K18">
-        <v>12.90875373644595</v>
+        <v>12.5376422363788</v>
       </c>
       <c r="L18">
-        <v>6.679908067034436</v>
+        <v>10.81371986364765</v>
       </c>
       <c r="M18">
-        <v>13.45868087872579</v>
+        <v>7.814622790505337</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.66975979082348</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.45170307409372</v>
       </c>
       <c r="P18">
-        <v>11.86150888232046</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.19047518121182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.86511097802008</v>
+      </c>
+      <c r="S18">
+        <v>13.89625549513555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.73077003047521</v>
+        <v>14.46445553314241</v>
       </c>
       <c r="C19">
-        <v>9.671375275692906</v>
+        <v>10.05485542445357</v>
       </c>
       <c r="D19">
-        <v>9.471523803487035</v>
+        <v>9.573332390151151</v>
       </c>
       <c r="E19">
-        <v>12.85900125847469</v>
+        <v>12.90484061918028</v>
       </c>
       <c r="F19">
-        <v>21.52462286999845</v>
+        <v>21.12829457888491</v>
       </c>
       <c r="G19">
-        <v>21.975826173</v>
+        <v>20.84543635965626</v>
       </c>
       <c r="I19">
-        <v>2.949816860560293</v>
+        <v>2.973916798121519</v>
       </c>
       <c r="J19">
-        <v>8.689637068661398</v>
+        <v>9.019313028044703</v>
       </c>
       <c r="K19">
-        <v>12.91204966546245</v>
+        <v>12.54495242976058</v>
       </c>
       <c r="L19">
-        <v>6.668783772350646</v>
+        <v>10.825076319811</v>
       </c>
       <c r="M19">
-        <v>13.40763854668582</v>
+        <v>7.807962298376234</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.658849077285072</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.40260719690112</v>
       </c>
       <c r="P19">
-        <v>11.87293521129757</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.18258059877066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.87485627423916</v>
+      </c>
+      <c r="S19">
+        <v>13.8945136622799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00307179328549</v>
+        <v>14.7151464563678</v>
       </c>
       <c r="C20">
-        <v>9.833591706613417</v>
+        <v>10.23092615541464</v>
       </c>
       <c r="D20">
-        <v>9.621427575561189</v>
+        <v>9.73480345164794</v>
       </c>
       <c r="E20">
-        <v>13.04960576083289</v>
+        <v>13.10044230293264</v>
       </c>
       <c r="F20">
-        <v>21.66701828454171</v>
+        <v>21.2254151420058</v>
       </c>
       <c r="G20">
-        <v>22.10387273610538</v>
+        <v>21.18877137200492</v>
       </c>
       <c r="I20">
-        <v>3.000365965113444</v>
+        <v>3.018326844260335</v>
       </c>
       <c r="J20">
-        <v>8.677704407606374</v>
+        <v>8.918612327089342</v>
       </c>
       <c r="K20">
-        <v>12.87236073885363</v>
+        <v>12.48634969482133</v>
       </c>
       <c r="L20">
-        <v>6.718121799423106</v>
+        <v>10.75632506307832</v>
       </c>
       <c r="M20">
-        <v>13.63674120653248</v>
+        <v>7.816479915449983</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.707083432389658</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.62151378422283</v>
       </c>
       <c r="P20">
-        <v>11.82379737603124</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.19485415715946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.83429965027521</v>
+      </c>
+      <c r="S20">
+        <v>13.87559022619091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.89147515901874</v>
+        <v>15.50819527636153</v>
       </c>
       <c r="C21">
-        <v>10.34736242128637</v>
+        <v>10.72711791388597</v>
       </c>
       <c r="D21">
-        <v>10.11065648251136</v>
+        <v>10.29437975470703</v>
       </c>
       <c r="E21">
-        <v>13.67711245221452</v>
+        <v>13.75867061169686</v>
       </c>
       <c r="F21">
-        <v>22.1686140732993</v>
+        <v>21.44453814338741</v>
       </c>
       <c r="G21">
-        <v>22.57323172416071</v>
+        <v>23.4014143364268</v>
       </c>
       <c r="I21">
-        <v>3.164738149605137</v>
+        <v>3.157631543373826</v>
       </c>
       <c r="J21">
-        <v>8.646205924911829</v>
+        <v>8.262282411268874</v>
       </c>
       <c r="K21">
-        <v>12.75571445970974</v>
+        <v>12.25195862710712</v>
       </c>
       <c r="L21">
-        <v>6.885793894360102</v>
+        <v>10.50604611722074</v>
       </c>
       <c r="M21">
-        <v>14.3795713152023</v>
+        <v>7.82649920912632</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.86764892980434</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.29397515521287</v>
       </c>
       <c r="P21">
-        <v>11.66052771014385</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.25632235831222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.71046055649795</v>
+      </c>
+      <c r="S21">
+        <v>13.73618345059482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.45915354041635</v>
+        <v>16.01380296110153</v>
       </c>
       <c r="C22">
-        <v>10.64758407485116</v>
+        <v>11.0096051701315</v>
       </c>
       <c r="D22">
-        <v>10.41718662110756</v>
+        <v>10.64847264026639</v>
       </c>
       <c r="E22">
-        <v>14.07620817451822</v>
+        <v>14.17846701233502</v>
       </c>
       <c r="F22">
-        <v>22.5227179447791</v>
+        <v>21.59965632427588</v>
       </c>
       <c r="G22">
-        <v>22.92538885003406</v>
+        <v>25.01604788554831</v>
       </c>
       <c r="I22">
-        <v>3.266566398187648</v>
+        <v>3.242129383995974</v>
       </c>
       <c r="J22">
-        <v>8.635036937725248</v>
+        <v>7.877166412018516</v>
       </c>
       <c r="K22">
-        <v>12.70003126529113</v>
+        <v>12.1090749777985</v>
       </c>
       <c r="L22">
-        <v>6.996906782879593</v>
+        <v>10.35431437192897</v>
       </c>
       <c r="M22">
-        <v>14.84474602073782</v>
+        <v>7.853258672967539</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.973638413431467</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.71140760455826</v>
       </c>
       <c r="P22">
-        <v>11.55429565045809</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.31899705372171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.63246740596644</v>
+      </c>
+      <c r="S22">
+        <v>13.65342626795144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.1720790480729</v>
+        <v>15.7646820532003</v>
       </c>
       <c r="C23">
-        <v>10.46374405689217</v>
+        <v>10.84625120968202</v>
       </c>
       <c r="D23">
-        <v>10.24999739895731</v>
+        <v>10.44946815679402</v>
       </c>
       <c r="E23">
-        <v>13.86208437469086</v>
+        <v>13.95042823774133</v>
       </c>
       <c r="F23">
-        <v>22.35069363748552</v>
+        <v>21.55994495615426</v>
       </c>
       <c r="G23">
-        <v>22.76709716032092</v>
+        <v>23.97920495691916</v>
       </c>
       <c r="I23">
-        <v>3.208567010124016</v>
+        <v>3.192723228659827</v>
       </c>
       <c r="J23">
-        <v>8.645800006833072</v>
+        <v>8.135666155660171</v>
       </c>
       <c r="K23">
-        <v>12.74325005684665</v>
+        <v>12.20836467176402</v>
       </c>
       <c r="L23">
-        <v>6.937956613731838</v>
+        <v>10.44891531923152</v>
       </c>
       <c r="M23">
-        <v>14.59781222729876</v>
+        <v>7.859909717521611</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.918099916704483</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.49713387323849</v>
       </c>
       <c r="P23">
-        <v>11.60947810222477</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.29778774154817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.66987293194161</v>
+      </c>
+      <c r="S23">
+        <v>13.72871309967353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.01007574719574</v>
+        <v>14.72342757635276</v>
       </c>
       <c r="C24">
-        <v>9.785180674089814</v>
+        <v>10.17997007954062</v>
       </c>
       <c r="D24">
-        <v>9.606126042871216</v>
+        <v>9.718729963626902</v>
       </c>
       <c r="E24">
-        <v>13.03599800334329</v>
+        <v>13.08649735825738</v>
       </c>
       <c r="F24">
-        <v>21.68687941166258</v>
+        <v>21.24811189971818</v>
       </c>
       <c r="G24">
-        <v>22.14511620764553</v>
+        <v>21.216667475352</v>
       </c>
       <c r="I24">
-        <v>2.990963647205047</v>
+        <v>3.007140206236962</v>
       </c>
       <c r="J24">
-        <v>8.68625435024005</v>
+        <v>8.932462226437837</v>
       </c>
       <c r="K24">
-        <v>12.89585275926365</v>
+        <v>12.5098716177163</v>
       </c>
       <c r="L24">
-        <v>6.716095077166792</v>
+        <v>10.77394715367286</v>
       </c>
       <c r="M24">
-        <v>13.62348994261848</v>
+        <v>7.833920033419677</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.705131763412578</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.60888201423374</v>
       </c>
       <c r="P24">
-        <v>11.8246574225882</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.21425693146581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.83411702179774</v>
+      </c>
+      <c r="S24">
+        <v>13.89668213339162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.64190852474884</v>
+        <v>13.43595836793852</v>
       </c>
       <c r="C25">
-        <v>9.007226694544869</v>
+        <v>9.268764016969406</v>
       </c>
       <c r="D25">
-        <v>8.875898309905669</v>
+        <v>8.965228537853294</v>
       </c>
       <c r="E25">
-        <v>12.10916292252655</v>
+        <v>12.1499037160599</v>
       </c>
       <c r="F25">
-        <v>21.0076939243314</v>
+        <v>20.65941336556136</v>
       </c>
       <c r="G25">
-        <v>21.53339813715244</v>
+        <v>20.52959054833301</v>
       </c>
       <c r="I25">
-        <v>2.748638522492101</v>
+        <v>2.791610228334199</v>
       </c>
       <c r="J25">
-        <v>8.746312535379834</v>
+        <v>9.034196996960056</v>
       </c>
       <c r="K25">
-        <v>13.08444710204969</v>
+        <v>12.73910176986918</v>
       </c>
       <c r="L25">
-        <v>6.48221797563551</v>
+        <v>11.07034341694574</v>
       </c>
       <c r="M25">
-        <v>12.48752570175817</v>
+        <v>7.776904213707712</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.473279551348327</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.48435422496481</v>
       </c>
       <c r="P25">
-        <v>12.06510277720996</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.16080217135245</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.04254205265386</v>
+      </c>
+      <c r="S25">
+        <v>13.90232948883355</v>
       </c>
     </row>
   </sheetData>
